--- a/biology/Médecine/Julien_Busson/Julien_Busson.xlsx
+++ b/biology/Médecine/Julien_Busson/Julien_Busson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julien Busson, né à Dinan en 11 mai 1717 et mort le 7 janvier 1781, est un médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de négociants, Busson fit ses études à Paris et fut d’abord destiné à l’état ecclésiastique, dont il se dégoûta bientôt. Il se livra alors avec ardeur à la médecine et, en 1742, il fut reçu docteur de la faculté de Paris. La duchesse du Maine le fit son lecteur et son médecin ordinaire, mais la fatigue que lui occasionnèrent emplois et ses travaux habituels détruisirent sa santé. Il vint respirer l’air natal pour la rétablir et se fixa ensuite à Rennes.
 Nommé successivement par les États de Bretagne médecin de la mine de Pont-Péan, inspecteur des hôpitaux civils et militaire de Bretagne, secrétaire de la société d'agriculture, il quitta Rennes pendant les troubles parlementaires de 1769, et revint à Paris. Il fut nommé médecin de la comtesse d'Artois.
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Joseph-François Michaud, Louis-Gabriel Michaud, Biographie universelle, Paris, Michaud frères, tome 6, 1812, p. 372-373.</t>
         </is>
